--- a/SNCF.xlsx
+++ b/SNCF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -55,28 +55,58 @@
     <t xml:space="preserve">"gareArrivee"</t>
   </si>
   <si>
-    <t xml:space="preserve">choisirDateDepart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"dateDepart"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choisirHeureDepart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"heureDepart"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choisirDateArrivee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"dateArrivee"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choisirHeureArrivee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"heureArrivee"</t>
+    <t xml:space="preserve">choisirDateAller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"dateAller"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choisirHeureAller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"heureAller"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choisirDateRetour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"dateRetour"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choisirHeureRetour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"heureRetour"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validerAller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validerRetour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choisirPlageAge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"numeroVoyageur"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"plageAge"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saisirAgeExact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ageExact"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choisirCarteReduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"carteReduction"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouterVoyageur</t>
   </si>
 </sst>
 </file>
@@ -194,17 +224,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="B11 B10"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,45 +334,85 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
